--- a/StructureDefinition-epoch.xlsx
+++ b/StructureDefinition-epoch.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-epoch.xlsx
+++ b/StructureDefinition-epoch.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
